--- a/scale2downlogdet.xlsx
+++ b/scale2downlogdet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="16">
   <si>
     <t xml:space="preserve">RF Dist with </t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Sequence 7</t>
+  </si>
+  <si>
+    <t>Lasso</t>
   </si>
 </sst>
 </file>
@@ -399,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -441,6 +444,9 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" t="s">
         <v>6</v>
       </c>
@@ -467,6 +473,9 @@
       <c r="F3">
         <v>32</v>
       </c>
+      <c r="G3">
+        <v>42</v>
+      </c>
       <c r="I3">
         <v>24</v>
       </c>
@@ -490,6 +499,9 @@
       <c r="F4">
         <v>38</v>
       </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
       <c r="I4">
         <v>28</v>
       </c>
@@ -513,6 +525,9 @@
       <c r="F5">
         <v>46</v>
       </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
       <c r="I5">
         <v>46</v>
       </c>
@@ -599,6 +614,9 @@
       <c r="F10">
         <v>26</v>
       </c>
+      <c r="G10">
+        <v>46</v>
+      </c>
       <c r="I10">
         <v>20</v>
       </c>
@@ -622,6 +640,9 @@
       <c r="F11">
         <v>38</v>
       </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
       <c r="I11">
         <v>30</v>
       </c>
@@ -645,6 +666,9 @@
       <c r="F12">
         <v>50</v>
       </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
       <c r="I12">
         <v>46</v>
       </c>
@@ -731,6 +755,9 @@
       <c r="F17">
         <v>38</v>
       </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
       <c r="I17">
         <v>28</v>
       </c>
@@ -754,6 +781,9 @@
       <c r="F18">
         <v>40</v>
       </c>
+      <c r="G18">
+        <v>52</v>
+      </c>
       <c r="I18">
         <v>44</v>
       </c>
@@ -777,6 +807,9 @@
       <c r="F19">
         <v>48</v>
       </c>
+      <c r="G19">
+        <v>54</v>
+      </c>
       <c r="I19">
         <v>50</v>
       </c>
@@ -863,6 +896,9 @@
       <c r="F24">
         <v>26</v>
       </c>
+      <c r="G24">
+        <v>46</v>
+      </c>
       <c r="I24">
         <v>28</v>
       </c>
@@ -886,6 +922,9 @@
       <c r="F25">
         <v>40</v>
       </c>
+      <c r="G25">
+        <v>52</v>
+      </c>
       <c r="I25">
         <v>30</v>
       </c>
@@ -909,6 +948,9 @@
       <c r="F26">
         <v>54</v>
       </c>
+      <c r="G26">
+        <v>56</v>
+      </c>
       <c r="I26">
         <v>52</v>
       </c>
@@ -995,6 +1037,9 @@
       <c r="F31">
         <v>30</v>
       </c>
+      <c r="G31">
+        <v>48</v>
+      </c>
       <c r="I31">
         <v>22</v>
       </c>
@@ -1018,6 +1063,9 @@
       <c r="F32">
         <v>30</v>
       </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
       <c r="I32">
         <v>24</v>
       </c>
@@ -1041,6 +1089,9 @@
       <c r="F33">
         <v>36</v>
       </c>
+      <c r="G33">
+        <v>46</v>
+      </c>
       <c r="I33">
         <v>38</v>
       </c>
@@ -1127,6 +1178,9 @@
       <c r="F38">
         <v>20</v>
       </c>
+      <c r="G38">
+        <v>40</v>
+      </c>
       <c r="I38">
         <v>26</v>
       </c>
@@ -1150,6 +1204,9 @@
       <c r="F39">
         <v>30</v>
       </c>
+      <c r="G39">
+        <v>36</v>
+      </c>
       <c r="I39">
         <v>30</v>
       </c>
@@ -1171,6 +1228,9 @@
         <v>42</v>
       </c>
       <c r="F40">
+        <v>48</v>
+      </c>
+      <c r="G40">
         <v>48</v>
       </c>
       <c r="I40">
